--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.040621-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.040621-1.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1425,12 +1425,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1809,12 +1809,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2113,12 +2113,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2497,12 +2497,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2535,12 +2535,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4021,12 +4021,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4059,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4097,12 +4097,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4135,12 +4135,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4439,12 +4439,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4477,12 +4477,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4743,12 +4743,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4899,12 +4899,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4937,12 +4937,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4975,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5393,12 +5393,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6267,12 +6267,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6651,12 +6651,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7753,12 +7753,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7791,12 +7791,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8141,12 +8141,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8259,12 +8259,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8487,12 +8487,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9437,12 +9437,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9551,12 +9551,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9627,12 +9627,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9817,12 +9817,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
